--- a/stm32f10x/documents/Development manual/Design Doc/车联网模块研发计划.xlsx
+++ b/stm32f10x/documents/Development manual/Design Doc/车联网模块研发计划.xlsx
@@ -21,6 +21,7 @@
     <definedName name="资源_表">封面!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -129,10 +130,7 @@
       <t>jian'k</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>zhong'd</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gai'z</t>
+      <t>zhong'dgai'z</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -554,6 +552,10 @@
     <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -566,13 +568,9 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -969,14 +967,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2"/>
@@ -1112,7 +1110,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="2"/>
@@ -1125,14 +1123,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="14" t="s">
@@ -1155,14 +1153,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A4" s="16">
@@ -1184,7 +1182,7 @@
       <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="15">
@@ -1264,7 +1262,7 @@
       <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="15">
@@ -1280,7 +1278,7 @@
       <c r="A11" s="16">
         <v>8</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="15">
@@ -1296,7 +1294,7 @@
       <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="15">
@@ -1344,7 +1342,7 @@
       <c r="A15" s="16">
         <v>12</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="15">
@@ -1449,40 +1447,40 @@
       <c r="D21" s="15">
         <v>43494</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/stm32f10x/documents/Development manual/Design Doc/车联网模块研发计划.xlsx
+++ b/stm32f10x/documents/Development manual/Design Doc/车联网模块研发计划.xlsx
@@ -21,7 +21,6 @@
     <definedName name="资源_表">封面!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -1109,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="2"/>
